--- a/TestData/credential.xlsx
+++ b/TestData/credential.xlsx
@@ -101,6 +101,7 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -213,7 +214,7 @@
   <dimension ref="A1:B724"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
